--- a/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_2_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2490241.570101189</v>
+        <v>2490241.570101192</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500479</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500479</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177586</v>
+        <v>3940022.790763655</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177586</v>
+        <v>3940022.790763655</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647382362.376274</v>
+        <v>62380380.03707939</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X2" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y2" t="n">
         <v>511.3174326828064</v>
@@ -749,7 +749,7 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
-        <v>346.4039869401295</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E3" t="n">
         <v>342.6720972219126</v>
@@ -764,7 +764,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -970,7 +970,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y5" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="6">
@@ -995,13 +995,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G8" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H8" t="n">
-        <v>346.4706963200956</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1232,13 +1232,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>321.0633076155671</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C11" t="n">
-        <v>448.0862339501712</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
         <v>410.3391557398498</v>
@@ -1429,7 +1429,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1542,52 +1542,52 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C14" t="n">
         <v>449.4745782429939</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>396.4956611600225</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>396.4956611600225</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201042</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611600225</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E21" t="n">
-        <v>342.6720972219126</v>
+        <v>341.1383972643396</v>
       </c>
       <c r="F21" t="n">
         <v>339.6362423378769</v>
@@ -2216,7 +2216,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.470696320101</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
         <v>347.8590406130752</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129555745</v>
+        <v>481.999312955469</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782429939</v>
+        <v>449.4745782428884</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557398498</v>
+        <v>410.3391557397443</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896068686</v>
+        <v>404.3632896067631</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287080119</v>
+        <v>404.8896287079064</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054528454</v>
+        <v>397.8840054527399</v>
       </c>
       <c r="H29" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406129697</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767770484</v>
       </c>
       <c r="T29" t="n">
-        <v>560.964918411981</v>
+        <v>560.9649184118755</v>
       </c>
       <c r="U29" t="n">
-        <v>648.751427201877</v>
+        <v>648.7514272017715</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241668239</v>
+        <v>629.8510241667184</v>
       </c>
       <c r="W29" t="n">
-        <v>638.3734759809475</v>
+        <v>638.373475980842</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334606677</v>
+        <v>592.2818334605622</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326828064</v>
+        <v>511.3174326827009</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +2927,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151013782</v>
+        <v>406.6592151017915</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G32" t="n">
         <v>397.8840054528454</v>
@@ -3103,7 +3103,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y32" t="n">
-        <v>509.9290883902919</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="33">
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,10 +3286,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4956611603313</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F38" t="n">
         <v>404.8896287080119</v>
@@ -3565,7 +3565,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U38" t="n">
-        <v>647.363082909363</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V38" t="n">
         <v>629.8510241668239</v>
@@ -3608,7 +3608,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I39" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
-        <v>346.4706963205611</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y41" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="42">
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D44" t="n">
         <v>410.3391557398498</v>
@@ -4036,7 +4036,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
-        <v>559.5765741189958</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
         <v>648.751427201877</v>
@@ -4064,7 +4064,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C45" t="n">
-        <v>361.0999124455193</v>
+        <v>359.5662124879463</v>
       </c>
       <c r="D45" t="n">
         <v>347.9376868977026</v>
@@ -4076,7 +4076,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>321.0633076155671</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H45" t="n">
         <v>301.8178796392513</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342872</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010445</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523947</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396619</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R2" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="3">
@@ -4397,19 +4397,19 @@
         <v>1920.815456050962</v>
       </c>
       <c r="D3" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E3" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4470,25 +4470,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
         <v>290.6133856211738</v>
@@ -4497,22 +4497,22 @@
         <v>440.0999956178874</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4524,22 +4524,22 @@
         <v>140.96</v>
       </c>
       <c r="T4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4570,52 +4570,52 @@
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K5" t="n">
-        <v>2124.71495243113</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L5" t="n">
-        <v>3071.357825473567</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M5" t="n">
-        <v>3553.537024987069</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N5" t="n">
-        <v>4118.580088859741</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O5" t="n">
-        <v>5028.734971800485</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
         <v>3067.029708403252</v>
@@ -4643,10 +4643,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4707,49 +4707,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104935</v>
+        <v>438.463966970767</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q7" t="n">
         <v>351.2038120028187</v>
@@ -4761,22 +4761,22 @@
         <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342872</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397736</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>1101.367131735721</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>2550.716641651429</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3797.935015773448</v>
+        <v>2712.238227509546</v>
       </c>
       <c r="M8" t="n">
-        <v>4280.114215286951</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N8" t="n">
-        <v>4845.157279159623</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O8" t="n">
-        <v>5755.312162100367</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P8" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q8" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4865,76 +4865,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2285.56284235957</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C9" t="n">
-        <v>1920.815456050964</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D9" t="n">
-        <v>1569.363247063386</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E9" t="n">
-        <v>1223.229815526101</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F9" t="n">
-        <v>880.1629040736996</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448439</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.989987654691</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J9" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K9" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L9" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M9" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N9" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O9" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P9" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q9" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R9" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S9" t="n">
-        <v>5157.673230555789</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T9" t="n">
-        <v>4761.015482194282</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U9" t="n">
-        <v>4356.97142716684</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V9" t="n">
-        <v>3938.273783539042</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W9" t="n">
-        <v>3501.533235145275</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X9" t="n">
-        <v>3077.429457927712</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y9" t="n">
-        <v>2674.003808668991</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="10">
@@ -4944,76 +4944,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.7173376662953</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>290.613385621177</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>290.613385621177</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>290.613385621177</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>290.613385621177</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>290.613385621177</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>290.613385621177</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>290.613385621177</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178906</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104967</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104967</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104967</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104967</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104967</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104967</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q10" t="n">
-        <v>351.2038120028219</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546288</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020863</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324045</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044379</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069938</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960388</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397736</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735721</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K11" t="n">
-        <v>2550.716641651429</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L11" t="n">
-        <v>3797.935015773605</v>
+        <v>3509.801978263786</v>
       </c>
       <c r="M11" t="n">
-        <v>4280.114215287108</v>
+        <v>3991.981177777289</v>
       </c>
       <c r="N11" t="n">
-        <v>4845.15727915978</v>
+        <v>4557.024241649961</v>
       </c>
       <c r="O11" t="n">
-        <v>5755.312162100524</v>
+        <v>5467.179124590705</v>
       </c>
       <c r="P11" t="n">
-        <v>6591.179490197937</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464164</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922543076</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766819012</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908964</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665865</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430707</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5102,76 +5102,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C12" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D12" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E12" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F12" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H12" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I12" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J12" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K12" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L12" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M12" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N12" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O12" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P12" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q12" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249248</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S12" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T12" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U12" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V12" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W12" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X12" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y12" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="13">
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546288</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048314</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351496</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071831</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361344455</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960388</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397736</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>1101.367131735721</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>2550.716641651429</v>
+        <v>1436.423622860729</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010602</v>
+        <v>2354.016346177312</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577524105</v>
+        <v>2836.195545690814</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396777</v>
+        <v>3401.238609563487</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337521</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434934</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362237156</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5339,76 +5339,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C15" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D15" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E15" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F15" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G15" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H15" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I15" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J15" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K15" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L15" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M15" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N15" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O15" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P15" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q15" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372911</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T15" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U15" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V15" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W15" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X15" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y15" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="16">
@@ -5418,76 +5418,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J16" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2980670266953</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>293.2980670266953</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>293.2980670266953</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>293.2980670266953</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>293.2980670266953</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.2980670266953</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>293.2980670266953</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>293.2980670266953</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>293.2980670266953</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351496</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071831</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361344455</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960388</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H17" t="n">
-        <v>140.9600000000032</v>
+        <v>140.9599999999946</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397736</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735721</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K17" t="n">
-        <v>1901.586501346636</v>
+        <v>2475.128344611655</v>
       </c>
       <c r="L17" t="n">
-        <v>2819.179224663219</v>
+        <v>3392.721067928238</v>
       </c>
       <c r="M17" t="n">
-        <v>3301.358424176722</v>
+        <v>3874.900267441741</v>
       </c>
       <c r="N17" t="n">
-        <v>3866.401488049394</v>
+        <v>4439.943331314413</v>
       </c>
       <c r="O17" t="n">
-        <v>4776.556370990138</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434934</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362237156</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000159</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="18">
@@ -5576,76 +5576,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C18" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D18" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E18" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F18" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H18" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I18" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K18" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L18" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M18" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N18" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O18" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P18" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q18" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S18" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T18" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U18" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V18" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W18" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X18" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y18" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="19">
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="I19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351496</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071831</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361344455</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960388</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H20" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397736</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154257</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K20" t="n">
-        <v>2124.714952431133</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L20" t="n">
-        <v>3042.307675747716</v>
+        <v>3509.801978263786</v>
       </c>
       <c r="M20" t="n">
-        <v>3524.486875261219</v>
+        <v>3991.981177777289</v>
       </c>
       <c r="N20" t="n">
-        <v>4089.529939133891</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O20" t="n">
-        <v>4999.684822074635</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434934</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362237156</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="21">
@@ -5813,76 +5813,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2287.112034235907</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C21" t="n">
-        <v>1922.364647927301</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D21" t="n">
-        <v>1570.912438939723</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E21" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F21" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H21" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I21" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K21" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L21" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M21" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N21" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O21" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P21" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q21" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
-        <v>5159.222422432125</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T21" t="n">
-        <v>4762.564674070619</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U21" t="n">
-        <v>4358.520619043176</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V21" t="n">
-        <v>3939.822975415379</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W21" t="n">
-        <v>3503.082427021612</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X21" t="n">
-        <v>3078.978649804049</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y21" t="n">
-        <v>2675.553000545327</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="22">
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="I22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893228</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893228</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893228</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893228</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893228</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893228</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893228</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893228</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546135</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048162</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351343</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071678</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342927</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233376</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H23" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397736</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154257</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083265</v>
+        <v>1408.776586572604</v>
       </c>
       <c r="L23" t="n">
-        <v>2332.601309399848</v>
+        <v>2326.369309889187</v>
       </c>
       <c r="M23" t="n">
-        <v>2814.780508913351</v>
+        <v>2808.54850940269</v>
       </c>
       <c r="N23" t="n">
-        <v>3379.823572786023</v>
+        <v>3373.591573275362</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.978455726767</v>
+        <v>4283.746456216106</v>
       </c>
       <c r="P23" t="n">
-        <v>5864.602299897903</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237003</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000006</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183184</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464011</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542923</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818859</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908811</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665712</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430554</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="24">
@@ -6050,76 +6050,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C24" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D24" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E24" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H24" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I24" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K24" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L24" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M24" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N24" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O24" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P24" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q24" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S24" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T24" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U24" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V24" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W24" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X24" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y24" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="25">
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
         <v>492.3327682960356</v>
@@ -6229,55 +6229,55 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L26" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523947</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396619</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337363</v>
+        <v>5264.058493781823</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434777</v>
+        <v>6099.925821879237</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6366,25 +6366,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
         <v>140.96</v>
@@ -6393,49 +6393,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518193</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020326</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994323615</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044057</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361342872</v>
+        <v>894.2358041067773</v>
       </c>
       <c r="G29" t="n">
-        <v>490.9304003233322</v>
+        <v>492.332768295929</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>2550.716641651425</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010445</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523947</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396619</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337363</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434777</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993154497</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243543</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290514449</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134790491</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441880549</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.511963637557</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708402506</v>
       </c>
     </row>
     <row r="30">
@@ -6548,31 +6548,31 @@
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295150262</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213183</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374526</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117489</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215624</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182362</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368849</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874250134</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306373326</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6630,46 +6630,46 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
         <v>140.96</v>
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518843</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020869</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324051</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044386</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041070001</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960452</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H32" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.54829703978</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735727</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K32" t="n">
-        <v>2550.716641651435</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L32" t="n">
-        <v>3468.309364968018</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M32" t="n">
-        <v>3950.48856448152</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N32" t="n">
-        <v>4515.531628354192</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O32" t="n">
-        <v>5425.686511294936</v>
+        <v>5048.61527574625</v>
       </c>
       <c r="P32" t="n">
-        <v>6261.55383939235</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362237475</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
-        <v>7048.000000000478</v>
+        <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183656</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464483</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922543395</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.19576681933</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073909282</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595666183</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403262</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927308</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500428</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448503</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546974</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I33" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149312</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117186</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372918</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432132</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070625</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043183</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415385</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021619</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.553000545334</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967231</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893292</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893292</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893292</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546606</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048633</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351815</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859072149</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361347637</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960452</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H35" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>216.54829703978</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>1101.367131735727</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>2550.716641651435</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3797.935015773925</v>
+        <v>2963.70989871419</v>
       </c>
       <c r="M35" t="n">
-        <v>4280.114215287427</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N35" t="n">
-        <v>4845.157279160099</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O35" t="n">
-        <v>5755.312162100843</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P35" t="n">
-        <v>6591.179490198257</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048.000000000478</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000000478</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183656</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464483</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922543395</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.19576681933</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073909282</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595666183</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340431025</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.364647927308</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D36" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E36" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500428</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448503</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546974</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I36" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149312</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K36" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L36" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117186</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N36" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O36" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P36" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q36" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372918</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
-        <v>5157.673230555795</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070625</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043183</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415385</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.082427021619</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X36" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.553000545334</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967231</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893292</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893292</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893292</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893292</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893292</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893292</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893292</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893292</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518843</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020869</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324051</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044386</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041070001</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960452</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.54829703978</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154321</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083271</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>2332.601309399854</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M38" t="n">
-        <v>3670.420662750549</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N38" t="n">
-        <v>4235.463726623221</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O38" t="n">
-        <v>5145.618609563965</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P38" t="n">
-        <v>5981.485937661379</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q38" t="n">
-        <v>7048.000000000478</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000000478</v>
+        <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183656</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464483</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515631</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791567</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881519</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363842</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403262</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.112034235913</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.364647927308</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.912438939729</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.779007402444</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500428</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448503</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546974</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I39" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149312</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117186</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372918</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432132</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070625</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043183</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415385</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021619</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804055</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545334</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>239.3480243886039</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>239.3480243886039</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>239.3480243886039</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>239.3480243886039</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>239.3480243886039</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>239.3480243886039</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
-        <v>239.3480243886039</v>
+        <v>140.96</v>
       </c>
       <c r="I40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967231</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546606</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048633</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351815</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859072149</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>892.8334361347637</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
-        <v>490.9304003238087</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.54829703978</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154321</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083271</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L41" t="n">
-        <v>2332.601309399854</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M41" t="n">
-        <v>2814.780508913357</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N41" t="n">
-        <v>3379.823572786029</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.978455726773</v>
+        <v>4640.391847907288</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299898375</v>
+        <v>6338.131329352084</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362237475</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
-        <v>7048.000000000478</v>
+        <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183656</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464483</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922543395</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.19576681933</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073909282</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595666183</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340431025</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927308</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500428</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448503</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546974</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149312</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117186</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249254</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432132</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070625</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043183</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415385</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021619</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545334</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967231</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518843</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020869</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324051</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044386</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041070001</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960452</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.54829703978</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>1101.367131735727</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>2550.716641651435</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523947</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396619</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337363</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434777</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6118.115762436719</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515631</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791567</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881519</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363842</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403262</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2285.562842359576</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C45" t="n">
-        <v>1920.815456050971</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D45" t="n">
-        <v>1569.363247063392</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E45" t="n">
-        <v>1223.229815526107</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
-        <v>880.1629040737059</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448503</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546974</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149312</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117186</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5569.989306372918</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5157.673230555795</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T45" t="n">
-        <v>4761.015482194289</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U45" t="n">
-        <v>4356.971427166846</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V45" t="n">
-        <v>3938.273783539048</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W45" t="n">
-        <v>3501.533235145282</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X45" t="n">
-        <v>3077.429457927718</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y45" t="n">
-        <v>2674.003808668997</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967231</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T46" t="n">
-        <v>140.9600000000096</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U46" t="n">
-        <v>140.9600000000096</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V46" t="n">
-        <v>140.9600000000096</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>214.8909222650873</v>
+        <v>835.1386633165828</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>721.3482088181361</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8218,34 +8218,34 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>29.3435855816706</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>283.5305021553739</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>332.9552028337739</v>
+        <v>459.8234496459309</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8692,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>332.9552028339331</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>291.043472231979</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>21.63135028026988</v>
       </c>
       <c r="L14" t="n">
-        <v>214.8909222652428</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,16 +8947,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209842</v>
       </c>
       <c r="J17" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K17" t="n">
-        <v>61.18810711421884</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,16 +9184,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>409.3070180254647</v>
       </c>
       <c r="P17" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,34 +9403,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>291.0434722319792</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>645.1956588513992</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>70.05686619102312</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>746.2187031047706</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>378.1515460156957</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10114,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,13 +10132,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>105.6954007733557</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
         <v>294.54111633436</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,16 +10369,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>713.8352387415302</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.8909222655594</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>332.9552028342496</v>
+        <v>637.4834235498438</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>176.4768357656714</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -10837,19 +10837,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>864.2829836739312</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>459.8234496459304</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>176.4768357656695</v>
@@ -11062,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11083,10 +11083,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>746.218703105241</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>137.5399223057484</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>214.8909222650773</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.388344292822637</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E13" t="n">
-        <v>115.7681162935301</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F13" t="n">
         <v>274.3828559677419</v>
@@ -23475,7 +23475,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.388344292822865</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23688,7 +23688,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>17.45782105274509</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
         <v>107.6476277959926</v>
@@ -23715,13 +23715,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.388344292822865</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292970999</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23916,7 +23916,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P19" t="n">
-        <v>368.8061924102448</v>
+        <v>203.5934038668184</v>
       </c>
       <c r="Q19" t="n">
         <v>505.228266425598</v>
@@ -23958,7 +23958,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
-        <v>158.5641654399917</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -23989,10 +23989,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292822865</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24150,10 +24150,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24162,7 +24162,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>107.6476277959926</v>
@@ -24186,7 +24186,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T22" t="n">
-        <v>198.7676812603561</v>
+        <v>65.41081595667603</v>
       </c>
       <c r="U22" t="n">
         <v>150.8146863564251</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292974125</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24405,7 +24405,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>168.0209277307011</v>
+        <v>2.808139187274691</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24438,7 +24438,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y25" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F28" t="n">
-        <v>206.5742115690239</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G28" t="n">
         <v>242.4092826775956</v>
@@ -24627,7 +24627,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24636,13 +24636,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.388344291606074</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957572765</v>
+        <v>1.533699957159456</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P31" t="n">
-        <v>368.8061924102448</v>
+        <v>203.5934038668184</v>
       </c>
       <c r="Q31" t="n">
         <v>505.228266425598</v>
@@ -24912,7 +24912,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.2525643060359</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24991,7 +24991,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.388344292514432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25110,7 +25110,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>107.6476277959926</v>
@@ -25119,7 +25119,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O34" t="n">
-        <v>268.0582198167198</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P34" t="n">
         <v>368.8061924102448</v>
@@ -25149,7 +25149,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="35">
@@ -25174,10 +25174,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388344292514034</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25347,10 +25347,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>168.0209277307011</v>
@@ -25371,13 +25371,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>198.7676812603561</v>
+        <v>173.0584437526686</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
         <v>226.3728098387097</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.388344292513921</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25496,7 +25496,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>219.3051559383607</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C40" t="n">
         <v>272.7252466480447</v>
@@ -25575,7 +25575,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.388344292514034</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25702,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="42">
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25860,7 +25860,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.388344292985153</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.533699957573447</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T46" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
         <v>150.8146863564251</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16635.20169611366</v>
+        <v>1366403.055422136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33181.61982254725</v>
+        <v>2720233.373779674</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49728.03794898083</v>
+        <v>4074063.692137214</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68560.63564458965</v>
+        <v>5286709.86049238</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87393.23334019847</v>
+        <v>6499356.028847547</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106225.8310358073</v>
+        <v>7712002.197202706</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125058.4287314161</v>
+        <v>8924648.365557861</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143891.0264270249</v>
+        <v>10137294.53391302</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162723.6241226338</v>
+        <v>11349940.70226817</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181556.2218182426</v>
+        <v>12562586.87062347</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200388.8195138514</v>
+        <v>13775233.03897862</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219221.4172094602</v>
+        <v>14987879.20733379</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238054.0149050693</v>
+        <v>16200525.37568897</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256886.6126006783</v>
+        <v>17413171.54404414</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275719.2102962874</v>
+        <v>18625817.71239932</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245017</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245018</v>
+        <v>850079.5022245017</v>
       </c>
       <c r="D2" t="n">
         <v>850079.5022245016</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.989432321</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="F2" t="n">
-        <v>761428.9894323206</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="G2" t="n">
-        <v>761428.9894323208</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="H2" t="n">
-        <v>761428.9894323207</v>
+        <v>761428.9894323125</v>
       </c>
       <c r="I2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="J2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="K2" t="n">
+        <v>761428.9894323976</v>
+      </c>
+      <c r="L2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="M2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="N2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="O2" t="n">
         <v>761428.9894323123</v>
       </c>
-      <c r="L2" t="n">
-        <v>761428.9894323372</v>
-      </c>
-      <c r="M2" t="n">
-        <v>761428.9894323373</v>
-      </c>
-      <c r="N2" t="n">
-        <v>761428.9894323373</v>
-      </c>
-      <c r="O2" t="n">
-        <v>761428.9894323375</v>
-      </c>
       <c r="P2" t="n">
-        <v>761428.989432312</v>
+        <v>761428.9894323127</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.384614733979106e-08</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26395,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620223.9999999863</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.578476702794433e-08</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163513</v>
+        <v>89075.8038216352</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715399</v>
+        <v>88773.85276715407</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722113</v>
+        <v>88471.49209722107</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850305</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850303</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="J4" t="n">
+        <v>13783.46259850301</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13783.4625985732</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13783.46259850301</v>
+      </c>
+      <c r="M4" t="n">
         <v>13783.46259850302</v>
       </c>
-      <c r="K4" t="n">
-        <v>13783.46259850302</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13783.46259850496</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13783.46259850496</v>
-      </c>
       <c r="N4" t="n">
-        <v>13783.46259850495</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850495</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850298</v>
+        <v>13783.46259850301</v>
       </c>
     </row>
     <row r="5">
@@ -26481,22 +26481,22 @@
         <v>172607</v>
       </c>
       <c r="D5" t="n">
-        <v>172607.0000000024</v>
+        <v>172607</v>
       </c>
       <c r="E5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="F5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="G5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="H5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="I5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="J5" t="n">
         <v>138979.4</v>
@@ -26505,19 +26505,19 @@
         <v>138979.4</v>
       </c>
       <c r="L5" t="n">
-        <v>138979.4000000073</v>
+        <v>138979.4</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.4000000073</v>
+        <v>138979.4</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.4000000073</v>
+        <v>138979.4</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.4000000073</v>
+        <v>138979.4</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.4000000073</v>
+        <v>138979.4</v>
       </c>
     </row>
     <row r="6">
@@ -26530,46 +26530,46 @@
         <v>-1456302.301597133</v>
       </c>
       <c r="C6" t="n">
-        <v>588698.6494573478</v>
+        <v>588698.6494573476</v>
       </c>
       <c r="D6" t="n">
-        <v>589001.0101272642</v>
+        <v>589001.0101272805</v>
       </c>
       <c r="E6" t="n">
-        <v>608666.126833815</v>
+        <v>608666.1268338093</v>
       </c>
       <c r="F6" t="n">
-        <v>608666.1268338145</v>
+        <v>608666.1268338094</v>
       </c>
       <c r="G6" t="n">
-        <v>608666.1268338148</v>
+        <v>608666.1268338094</v>
       </c>
       <c r="H6" t="n">
-        <v>608666.1268338147</v>
+        <v>608666.1268338095</v>
       </c>
       <c r="I6" t="n">
-        <v>608666.1268338072</v>
+        <v>608666.1268338093</v>
       </c>
       <c r="J6" t="n">
-        <v>-11557.87316617696</v>
+        <v>-11557.87316619069</v>
       </c>
       <c r="K6" t="n">
+        <v>608666.1268338244</v>
+      </c>
+      <c r="L6" t="n">
+        <v>608666.1268338094</v>
+      </c>
+      <c r="M6" t="n">
+        <v>608666.1268338094</v>
+      </c>
+      <c r="N6" t="n">
+        <v>608666.1268338094</v>
+      </c>
+      <c r="O6" t="n">
         <v>608666.1268338093</v>
       </c>
-      <c r="L6" t="n">
-        <v>608666.1268337693</v>
-      </c>
-      <c r="M6" t="n">
-        <v>608666.1268338251</v>
-      </c>
-      <c r="N6" t="n">
-        <v>608666.1268338251</v>
-      </c>
-      <c r="O6" t="n">
-        <v>608666.1268338253</v>
-      </c>
       <c r="P6" t="n">
-        <v>608666.1268338017</v>
+        <v>608666.1268338097</v>
       </c>
     </row>
   </sheetData>
@@ -26925,22 +26925,22 @@
         <v>1762</v>
       </c>
       <c r="D4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="E4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="F4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="G4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="H4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="I4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="J4" t="n">
         <v>1762</v>
@@ -26949,19 +26949,19 @@
         <v>1762</v>
       </c>
       <c r="L4" t="n">
-        <v>1762.00000000012</v>
+        <v>1762</v>
       </c>
       <c r="M4" t="n">
-        <v>1762.00000000012</v>
+        <v>1762</v>
       </c>
       <c r="N4" t="n">
-        <v>1762.00000000012</v>
+        <v>1762</v>
       </c>
       <c r="O4" t="n">
-        <v>1762.00000000012</v>
+        <v>1762</v>
       </c>
       <c r="P4" t="n">
-        <v>1762.00000000012</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,34 +27144,34 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.223337312440642e-11</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1761.999999999968</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5137717905666e-10</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.933564585167915e-11</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27574,7 +27574,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27687,7 +27687,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I4" t="n">
-        <v>97.40414414470841</v>
+        <v>248.5691801256921</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27720,7 +27720,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T4" t="n">
-        <v>349.9327172413397</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U4" t="n">
         <v>150.8146863564251</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27814,7 +27814,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="6">
@@ -27839,13 +27839,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P7" t="n">
-        <v>368.8061924102448</v>
+        <v>388.0294482079482</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27957,7 +27957,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T7" t="n">
-        <v>349.9327172413397</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U7" t="n">
         <v>150.8146863564251</v>
@@ -27997,10 +27997,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292979582</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28076,13 +28076,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.533699957573447</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C10" t="n">
-        <v>311.004082966107</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D10" t="n">
         <v>285.5362180555555</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29695,22 +29695,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,16 +29744,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -29765,7 +29765,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -34825,22 +34825,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1141.752258948505</v>
+        <v>1762</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1292.098778386492</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
@@ -34852,7 +34852,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34983,7 +34983,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="J4" t="n">
         <v>150.9965757542561</v>
@@ -35016,7 +35016,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -35062,34 +35062,34 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>956.2049222650876</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>854.2810717237297</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P5" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>19.22325579770342</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35253,7 +35253,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -35299,22 +35299,22 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1259.816539517191</v>
+        <v>1386.684786329348</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35436,10 +35436,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.8861996629213</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>38.27883631806233</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35536,16 +35536,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>1259.816539517351</v>
+        <v>1762</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35557,7 +35557,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1135.353904653609</v>
       </c>
       <c r="Q11" t="n">
         <v>461.4348583860824</v>
@@ -35776,13 +35776,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.989403955261</v>
+        <v>768.7456367124307</v>
       </c>
       <c r="L14" t="n">
-        <v>1141.75225894866</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,16 +35791,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P14" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36010,16 +36010,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>5.483380304249662e-12</v>
       </c>
       <c r="J17" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K17" t="n">
-        <v>808.3023935463796</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L17" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36028,16 +36028,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>919.3483666068121</v>
+        <v>1328.655384632277</v>
       </c>
       <c r="P17" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,34 +36247,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>861.794041800335</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>1489.506091273029</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,16 +36484,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.1142864321607</v>
+        <v>817.171152623184</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834177</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36505,13 +36505,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1590.529135526401</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,19 +36721,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L26" t="n">
-        <v>1141.752258948505</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M26" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
@@ -36745,7 +36745,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>839.5864044017781</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36958,16 +36958,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L29" t="n">
-        <v>1141.752258948505</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36976,13 +36976,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1025.043767380168</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
         <v>118.0642805686905</v>
@@ -37040,16 +37040,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156716381</v>
+        <v>422.1086156717436</v>
       </c>
       <c r="K30" t="n">
         <v>698.5532603011687</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244052909</v>
+        <v>956.4197244053964</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421645042</v>
+        <v>883.1950421646097</v>
       </c>
       <c r="N30" t="n">
         <v>951.9457859577115</v>
@@ -37061,7 +37061,7 @@
         <v>713.7510799863513</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160415959</v>
+        <v>228.0617160417014</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37195,16 +37195,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37213,16 +37213,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1558.14567116316</v>
       </c>
       <c r="Q32" t="n">
-        <v>676.3257806516418</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37435,13 +37435,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1259.816539517667</v>
+        <v>1564.344760233261</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37450,7 +37450,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P35" t="n">
         <v>844.3104324216301</v>
@@ -37459,7 +37459,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.837363033884704e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>463.4516620966183</v>
@@ -37681,19 +37681,19 @@
         <v>926.8613366834174</v>
       </c>
       <c r="M38" t="n">
-        <v>1351.332680152217</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1304.133882067561</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37906,13 +37906,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L41" t="n">
         <v>926.8613366834174</v>
@@ -37927,10 +37927,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1590.529135526871</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>598.9747806918308</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38143,16 +38143,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>1141.752258948495</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38164,10 +38164,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
